--- a/20240703_linear_r2.xlsx
+++ b/20240703_linear_r2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jaden/Documents/KimLab_CSU/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57F57C24-EED9-D94B-8073-5B731170CD36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6062DCD4-051F-6A45-9EB2-ADB9A4CCAB34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -133,7 +133,37 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="18">
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -146,6 +176,46 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -176,6 +246,26 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -186,11 +276,41 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -495,12 +615,18 @@
   <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="162" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="22" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
@@ -1082,13 +1208,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:N14">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="greaterThan">
+      <formula>0.99</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="greaterThan">
+      <formula>0.95</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="6" operator="greaterThan">
       <formula>0.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="greaterThan">
+      <formula>0.9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="greaterThan">
       <formula>0.95</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="greaterThan">
       <formula>0.99</formula>
     </cfRule>
   </conditionalFormatting>
